--- a/data/CLIENTES.xlsx
+++ b/data/CLIENTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlipioD\KAP\EmailAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F00B5C4-7710-4BF6-9816-BA132D19AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE00A7-C4CA-4CC1-A0F5-98C0801C6C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Oracle</t>
+  </si>
+  <si>
+    <t>yagamidsa1984@gmail.com</t>
+  </si>
+  <si>
+    <t>David Alipio</t>
   </si>
 </sst>
 </file>
@@ -429,13 +435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -480,10 +490,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EE181183-7B13-4880-9366-7AE3C775D071}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{1B9D9DA9-F180-4F52-A1CD-741FEE2BB7B2}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{369948CC-8E6D-4DE6-8391-B59047D78BFB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
